--- a/out/production/polestarhc/com/polestarhc/MySecondExcel.xlsx
+++ b/out/production/polestarhc/com/polestarhc/MySecondExcel.xlsx
@@ -14,10 +14,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
-    <t>PatientId</t>
-  </si>
-  <si>
-    <t>PatientName</t>
+    <t>환자번호</t>
+  </si>
+  <si>
+    <t>환자이름</t>
   </si>
   <si>
     <t>PID0</t>
